--- a/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.1331182821395792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.073329724770794</v>
+        <v>-1.073329724770793</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05930140248654971</v>
@@ -649,7 +649,7 @@
         <v>-0.1390963874241918</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.500230458085988</v>
+        <v>-0.5002304580859879</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8419483111213661</v>
+        <v>-0.8027264409896019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.557962628821178</v>
+        <v>-0.4601878529534966</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.072997347916337</v>
+        <v>-1.094155055736111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.546823550841836</v>
+        <v>-2.607687714050906</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6001927863591556</v>
+        <v>-0.5645292233340546</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3968600773260389</v>
+        <v>-0.3454030033883634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.745162189077988</v>
+        <v>-0.7136547494853696</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7587433685587206</v>
+        <v>-0.7941585787695322</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8325833518561929</v>
+        <v>0.8225149817180356</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.219553935873215</v>
+        <v>1.28378133196123</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7483645460288953</v>
+        <v>0.7710408960855871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05267923789751507</v>
+        <v>0.104939049147348</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.555643803425381</v>
+        <v>1.505254483884025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.757617365019088</v>
+        <v>1.72025814832428</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.883629085418727</v>
+        <v>1.882436997459021</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.07574328348828249</v>
+        <v>0.1640348743791041</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3112564149528462</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.007501229019881393</v>
+        <v>-0.007501229019882434</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.02731977367785053</v>
@@ -749,7 +749,7 @@
         <v>0.336618138070758</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.004861167692619199</v>
+        <v>-0.004861167692619871</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.122346406142893</v>
+        <v>-1.104746170331504</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7073238434992186</v>
+        <v>-0.7954972528490959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3517216244367697</v>
+        <v>-0.3447171901319871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.84175648012363</v>
+        <v>-0.8350607611391639</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4133252381086049</v>
+        <v>-0.4265455310332693</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3873347017388599</v>
+        <v>-0.4043612591654037</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3043339347124446</v>
+        <v>-0.2870141190935765</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4322254482984274</v>
+        <v>-0.4370554560335393</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9510731589625893</v>
+        <v>0.9393899608912484</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9014762509770011</v>
+        <v>0.8549870416293588</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9879940670981308</v>
+        <v>0.9765728325667232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7545941058095017</v>
+        <v>0.7796251489743147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6199570251874951</v>
+        <v>0.6407750416766613</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.911607581060401</v>
+        <v>0.81141482089015</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.626334865864167</v>
+        <v>1.484563238469538</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6720984156982247</v>
+        <v>0.7253317850210365</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2366497922634344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1895811118687932</v>
+        <v>0.1895811118687935</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2516494958957793</v>
@@ -849,7 +849,7 @@
         <v>0.2782034299957448</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.09996714974605571</v>
+        <v>0.09996714974605592</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.177792793004894</v>
+        <v>-1.422483378386346</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2743785525182234</v>
+        <v>-0.4616908735651043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.177514066264807</v>
+        <v>-1.166169324656968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.606536129078264</v>
+        <v>-1.45880499425729</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5157249338166547</v>
+        <v>-0.572043442364039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3245014717344221</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>-0.8332381837658975</v>
-      </c>
+        <v>-0.376421887612137</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.5568955676043306</v>
+        <v>-0.5422704591517128</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.454383592811787</v>
+        <v>2.203727046134381</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.303172355674606</v>
+        <v>3.168392446018607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.454038038908301</v>
+        <v>1.469871247843944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.706442007503207</v>
+        <v>1.662190356034696</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.95278692409668</v>
+        <v>2.394163472064095</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>7.71304333378322</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>6.441392441390306</v>
-      </c>
+        <v>7.439549868277388</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.73255590548398</v>
+        <v>1.606547713909256</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6826584995074122</v>
+        <v>-0.7066749916852187</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.3005650540878476</v>
+        <v>-0.2674915426720357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2948128058129572</v>
+        <v>-0.3254165303070956</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8443703630193776</v>
+        <v>-0.8578883479601455</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3497045493939238</v>
+        <v>-0.3519240996802964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1900142989895015</v>
+        <v>-0.1689547166683026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2598594458479621</v>
+        <v>-0.298642651489123</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3928671461798843</v>
+        <v>-0.4001103188739015</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6087274035988078</v>
+        <v>0.6281493705378767</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8336400529900735</v>
+        <v>0.8968959710159554</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6762398533378516</v>
+        <v>0.6751392326415553</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3985517442306056</v>
+        <v>0.4573937045357636</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4404429741748572</v>
+        <v>0.4623991599672847</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8477790013767377</v>
+        <v>0.8562219815512172</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9826361456264775</v>
+        <v>0.9846120854932118</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3037832955385308</v>
+        <v>0.3705190963109748</v>
       </c>
     </row>
     <row r="16">
